--- a/McNulty_data_source.xlsx
+++ b/McNulty_data_source.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_counts" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Norm_counts" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="DNA_yields" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Genome_size" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Perturbations" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Taxonomy" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="DNA_per_sample" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Genome_size" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Perturbations" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Taxonomy" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="512">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1335,6 +1336,9 @@
     <t xml:space="preserve">cecum</t>
   </si>
   <si>
+    <t xml:space="preserve">ug DNA / mg starting material</t>
+  </si>
+  <si>
     <t xml:space="preserve">Genome_length (bp)</t>
   </si>
   <si>
@@ -1384,6 +1388,9 @@
   </si>
   <si>
     <t xml:space="preserve">HF/HS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LF/HPP</t>
   </si>
   <si>
     <t xml:space="preserve">sequence</t>
@@ -1770,7 +1777,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.23"/>
@@ -1778,7 +1785,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="9" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6.23"/>
@@ -1786,13 +1793,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="47" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="59" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="64" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="86" style="0" width="7.63"/>
@@ -1805,7 +1812,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="102" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="111" min="103" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="112" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="112" min="112" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="113" min="113" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="114" min="114" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="119" min="115" style="0" width="7.63"/>
@@ -1818,7 +1825,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="130" min="129" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="131" min="131" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="139" min="132" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="140" min="140" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="141" min="141" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="142" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="144" min="143" style="0" width="7.63"/>
@@ -1827,7 +1834,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="159" min="147" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="160" min="160" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="167" min="161" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="168" min="168" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="168" min="168" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="169" min="169" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="170" min="170" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="179" min="171" style="0" width="7.63"/>
@@ -1838,7 +1845,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="188" min="187" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="189" min="189" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="196" min="190" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="197" min="197" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="197" min="197" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="198" min="198" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="199" min="199" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="201" min="200" style="0" width="7.63"/>
@@ -1851,11 +1858,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="216" min="216" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="217" min="217" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="226" min="218" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="227" min="227" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="227" min="227" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="228" min="228" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="229" min="229" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="253" min="230" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="254" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="254" min="254" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="255" min="255" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="256" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="259" min="257" style="0" width="7.63"/>
@@ -1865,7 +1872,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="275" min="275" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="276" min="276" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="282" min="277" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="283" min="283" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="283" min="283" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="284" min="284" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="285" min="285" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="302" min="286" style="0" width="7.63"/>
@@ -1879,7 +1886,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="326" min="317" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="327" min="327" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="337" min="328" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="338" min="338" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="338" min="338" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="339" min="339" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="347" min="340" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="348" min="348" style="0" width="8.52"/>
@@ -1889,7 +1896,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="358" min="358" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="359" min="359" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="365" min="360" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="366" min="366" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="366" min="366" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="370" min="367" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="371" min="371" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="378" min="372" style="0" width="7.63"/>
@@ -1897,13 +1904,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="384" min="380" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="385" min="385" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="393" min="386" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="394" min="394" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="394" min="394" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="406" min="395" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="407" min="407" style="0" width="8.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="410" min="408" style="0" width="7.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="413" min="411" style="0" width="6.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="419" min="414" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="420" min="420" style="0" width="7.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="420" min="420" style="0" width="7.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18334,7 +18341,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.13"/>
@@ -34895,10 +34902,10 @@
   <dimension ref="A1:C391"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.47"/>
   </cols>
@@ -39220,13 +39227,4341 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C391"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.59"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C225" s="0" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C226" s="0" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C227" s="0" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C228" s="0" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C229" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C230" s="0" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C231" s="0" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C232" s="0" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C233" s="0" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C234" s="0" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C235" s="0" t="n">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C236" s="0" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C237" s="0" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C238" s="0" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C239" s="0" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C240" s="0" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C241" s="0" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C242" s="0" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C243" s="0" t="n">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C244" s="0" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C245" s="0" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C246" s="0" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C247" s="0" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C248" s="0" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C249" s="0" t="n">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C250" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C251" s="0" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C252" s="0" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C253" s="0" t="n">
+        <v>2.55</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C254" s="0" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B255" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="C255" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C256" s="0" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C257" s="0" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C258" s="0" t="n">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C259" s="0" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C260" s="0" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C261" s="0" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C262" s="0" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C263" s="0" t="n">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C264" s="0" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C265" s="0" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C266" s="0" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C267" s="0" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C268" s="0" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C269" s="0" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C270" s="0" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C271" s="0" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C272" s="0" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C273" s="0" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C274" s="0" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C275" s="0" t="n">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C276" s="0" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C277" s="0" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C278" s="0" t="n">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C279" s="0" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C280" s="0" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C281" s="0" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C282" s="0" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C283" s="0" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C284" s="0" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C285" s="0" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="C286" s="0" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C287" s="0" t="n">
+        <v>4.44</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C290" s="0" t="n">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C291" s="0" t="n">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C292" s="0" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C293" s="0" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C294" s="0" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C297" s="0" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C298" s="0" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C299" s="0" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C300" s="0" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="C301" s="0" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C302" s="0" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C303" s="0" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C304" s="0" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C305" s="0" t="n">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C306" s="0" t="n">
+        <v>4.13</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C307" s="0" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C308" s="0" t="n">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C309" s="0" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C310" s="0" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C311" s="0" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C312" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C313" s="0" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C314" s="0" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C315" s="0" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C316" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C317" s="0" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C318" s="0" t="n">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C319" s="0" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C320" s="0" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C321" s="0" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C322" s="0" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C323" s="0" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C324" s="0" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C325" s="0" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C326" s="0" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C327" s="0" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C328" s="0" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C329" s="0" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C330" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C331" s="0" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C332" s="0" t="n">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C333" s="0" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C334" s="0" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C335" s="0" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C336" s="0" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C337" s="0" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C338" s="0" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C339" s="0" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C340" s="0" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C341" s="0" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C342" s="0" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B343" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C343" s="0" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B344" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C344" s="0" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B345" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C345" s="0" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B346" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C346" s="0" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B347" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C347" s="0" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B348" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C348" s="0" t="n">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B349" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C349" s="0" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B350" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C350" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B351" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C351" s="0" t="n">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B352" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C352" s="0" t="n">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B353" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C353" s="0" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B354" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C354" s="0" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B355" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C355" s="0" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B356" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C356" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B357" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C357" s="0" t="n">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B358" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C358" s="0" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B359" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C359" s="0" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B360" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C360" s="0" t="n">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B361" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="C361" s="0" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B362" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C362" s="0" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B363" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C363" s="0" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B364" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C364" s="0" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B365" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C365" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B366" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C366" s="0" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B367" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C367" s="0" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B368" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C368" s="0" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B369" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C369" s="0" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B370" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C370" s="0" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B371" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C371" s="0" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B372" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C372" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B373" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C373" s="0" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C374" s="0" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C375" s="0" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="C376" s="0" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C377" s="0" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C378" s="0" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C379" s="0" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C380" s="0" t="n">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C381" s="0" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C382" s="0" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C383" s="0" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C384" s="0" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C385" s="0" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C386" s="0" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C387" s="0" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C388" s="0" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C389" s="0" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C390" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C391" s="0" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -39367,12 +43702,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>4564814</v>
@@ -39380,7 +43715,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>7082128</v>
@@ -39388,7 +43723,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>6463169</v>
@@ -39396,7 +43731,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>6293399</v>
@@ -39404,7 +43739,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>4717497</v>
@@ -39412,7 +43747,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5163189</v>
@@ -39420,7 +43755,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2439869</v>
@@ -39428,7 +43763,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>3619444</v>
@@ -39436,7 +43771,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2507485</v>
@@ -39444,7 +43779,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>2913833</v>
@@ -39452,7 +43787,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4811379</v>
@@ -39460,7 +43795,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3624307</v>
@@ -39470,366 +43805,6 @@
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -39842,13 +43817,261 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="295.9"/>
@@ -39857,7 +44080,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.85"/>
   </cols>
   <sheetData>
@@ -39866,376 +44089,376 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>464</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>467</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
